--- a/medicine/Enfance/Mari_Kanstad_Johnsen/Mari_Kanstad_Johnsen.xlsx
+++ b/medicine/Enfance/Mari_Kanstad_Johnsen/Mari_Kanstad_Johnsen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mari Kanstad Johnsen (née le 7 août 1981) est une illustratrice et autrice de livres pour enfants norvégienne.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mari Kanstad Johnsen est née à Bergen. Elle est la fille du designer et graphiste Augon Johnsen (no) (né en 1953). Sa sœur aînée Åshild Kanstad Johnsen (no) (née en 1978) est illustratrice et autrice de livres pour enfants.
 Mari Kanstad Johnsen a étudié à l'École nationale des arts d'Oslo et à la Konstfack à Stockholm. Depuis 2011, elle a illustré des livres norvégiens pour enfants et romans. Elle a également écrit et illustré ses propres livres pour enfants.
-En 2016, elle a reçu une mention spéciale pour Jeg Rømmer au Prix italien du livre jeunesse Bologna Ragazzi. Son livre illustré pour enfant Poff und Elmar avec un texte de Espen Dekko (de) a été inclus dans la liste de sélection de l'Internationale Jugendbibliothek (de) de Munich en 2018[1]. Il a été traduit en allemand en 2019. ABC a reçu la médaille d'or du « Plus beau livre de l'année » en Norvège en 2018[2].
+En 2016, elle a reçu une mention spéciale pour Jeg Rømmer au Prix italien du livre jeunesse Bologna Ragazzi. Son livre illustré pour enfant Poff und Elmar avec un texte de Espen Dekko (de) a été inclus dans la liste de sélection de l'Internationale Jugendbibliothek (de) de Munich en 2018. Il a été traduit en allemand en 2019. ABC a reçu la médaille d'or du « Plus beau livre de l'année » en Norvège en 2018.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Critique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Les dessins de Mari Kanstad Johnsen puisent leur inspiration à de multiples sources : la bande dessinée, la peinture, le croquis, les représentations botaniques, la gravure japonaise ou encore le dessin animalier. Ils se distinguent par un style expérimental fait d’entrelacs de lignes, de couleurs vives et de personnages aux formes élastiques, qui tend à brouiller les frontières entre l’illustration, la bande dessinée et le graphisme. » (Parisart, Exposition Inner Planets, Studio PhotoKino, Marseille, septembre 2018 [lire en ligne].)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications en tant qu'illustratrice et autrice</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mon grand papa (2013)
 L'usine à ballons (2014)
@@ -607,7 +625,9 @@
           <t>Publications en tant qu'illustratrice</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Helge Torvund, Vivaldi (2011)
 Kari Tinnen, Nils, Barbie et le problème du pistolet (2011)
